--- a/自如信息科技/OKR-Excel文档/2020年M5_OKRI-杨成琳.xlsx
+++ b/自如信息科技/OKR-Excel文档/2020年M5_OKRI-杨成琳.xlsx
@@ -21,89 +21,694 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
-    <t>O(目标）</t>
-  </si>
-  <si>
-    <t>权重</t>
-  </si>
-  <si>
-    <t>KRS（关键结果）</t>
-  </si>
-  <si>
-    <t>I（具体举措）</t>
-  </si>
-  <si>
-    <t>交付物</t>
-  </si>
-  <si>
-    <t>达成情况</t>
-  </si>
-  <si>
-    <t>个人成长</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. 参加demo会议并学习;
-2. 多多参加组织的各种分享会。
+    <t>2020M05</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>O(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="0"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>目标）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="0"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>权重</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>KRS</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="0"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（关键结果）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>I</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="0"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（具体举措）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="0"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>交付物</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="0"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>达成情况</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>提高代码质量</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color indexed="8"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>个人成长</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="22"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>姓名：杨成琳</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>05</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="22"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>月</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="22"/>
+        <color indexed="8"/>
+        <rFont val="Century Schoolbook"/>
+        <family val="1"/>
+      </rPr>
+      <t>OKR</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="22"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>工号：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="22"/>
+        <color rgb="FF000000"/>
+        <rFont val="Century Schoolbook"/>
+        <family val="1"/>
+      </rPr>
+      <t>60027132</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FF000000"/>
+        <rFont val="Century Schoolbook"/>
+        <family val="1"/>
+      </rPr>
+      <t>COPQ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">需求调研与详细设计
 </t>
-  </si>
-  <si>
-    <t>提高代码质量</t>
-  </si>
-  <si>
-    <t>05月OKR</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>姓名：杨成琳</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>工号：60027132</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>调整项目结构，优化代码</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  1、COPQ需求调研
-  2、COPQ产品设计
-  3、COPQ功能点开发
-  4、COPQ测试</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、尝试初步调整项目结构</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>参加demo会议，分享及聆听经验；
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FF000000"/>
+        <rFont val="Century Schoolbook"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">  2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FF000000"/>
+        <rFont val="Century Schoolbook"/>
+        <family val="1"/>
+      </rPr>
+      <t>Sugar</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">平台统图迁移
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FF000000"/>
+        <rFont val="Century Schoolbook"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">  3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、邱燕二期需求开发</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、完成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Century Schoolbook"/>
+        <family val="1"/>
+      </rPr>
+      <t>COPQ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">需求调研及详细设计工作，形成文档
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Century Schoolbook"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">  2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、完成基础平台</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Century Schoolbook"/>
+        <family val="1"/>
+      </rPr>
+      <t>Sugar</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">统计图的交接工作，整理需求
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Century Schoolbook"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">  3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、完成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Century Schoolbook"/>
+        <family val="1"/>
+      </rPr>
+      <t>Sugar</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>平台统计图表</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Century Schoolbook"/>
+        <family val="1"/>
+      </rPr>
+      <t>30%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的迁移工作</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Century Schoolbook"/>
+        <family val="1"/>
+      </rPr>
+      <t>(7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>图</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Century Schoolbook"/>
+        <family val="1"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>共</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Century Schoolbook"/>
+        <family val="1"/>
+      </rPr>
+      <t>23</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>个图</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Century Schoolbook"/>
+        <family val="1"/>
+      </rPr>
+      <t>)
+  4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、完成邱燕提出的二期需求，改进外包人员维护功能，修改工时统计维度，增加经理排重条件</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、完成第一阶段</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Century Schoolbook"/>
+        <family val="1"/>
+      </rPr>
+      <t>BI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">平台的初步重构工作。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Century Schoolbook"/>
+        <family val="1"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、开始剥离底层通用代码到独立项目中。</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color indexed="8"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>参加</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color indexed="8"/>
+        <rFont val="Century Schoolbook"/>
+        <family val="1"/>
+      </rPr>
+      <t>demo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color indexed="8"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>会议并学习</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color indexed="8"/>
+        <rFont val="Century Schoolbook"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">;
+2. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color indexed="8"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">多多参加组织的各种分享会。
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、完成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FF000000"/>
+        <rFont val="Century Schoolbook"/>
+        <family val="1"/>
+      </rPr>
+      <t>Sugar</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>平台图表迁移功</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FF000000"/>
+        <rFont val="Century Schoolbook"/>
+        <family val="1"/>
+      </rPr>
+      <t>30%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">；
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FF000000"/>
+        <rFont val="Century Schoolbook"/>
+        <family val="1"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">、完成邱燕的二期需求
+</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>调整项目结构，优化代码</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color indexed="8"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>参加</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color indexed="8"/>
+        <rFont val="Century Schoolbook"/>
+        <family val="1"/>
+      </rPr>
+      <t>demo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color indexed="8"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>会议，分享及聆听经验；
 完成每周的技术博客分享</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>2020M05</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  1、协同张航找需求方进行功能调研
-  2、进行产品原型设计，梳理功能点
-  3、梳理预研性功能点，安排开发工期
-  4、进入开发节点
-  5、重新梳理BI平台目录结构</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>BI平台
-完成COPQ功能50%；提升数据的直观展示能力；辅助使用者做出决策</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -113,73 +718,140 @@
     </font>
     <font>
       <b/>
-      <sz val="22"/>
+      <sz val="16"/>
+      <color theme="0"/>
+      <name val="Microsoft YaHei"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="20"/>
       <color indexed="8"/>
-      <name val="宋体"/>
+      <name val="Microsoft YaHei"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
+      <sz val="20"/>
+      <color rgb="FF000000"/>
+      <name val="Microsoft YaHei"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Microsoft YaHei"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Microsoft YaHei"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color indexed="8"/>
+      <name val="Microsoft YaHei"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="22"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color indexed="8"/>
+      <name val="Century Schoolbook"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Century Schoolbook"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color rgb="FF000000"/>
+      <name val="Century Schoolbook"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="16"/>
       <color theme="0"/>
-      <name val="Microsoft YaHei"/>
-      <charset val="134"/>
+      <name val="Century Schoolbook"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="16"/>
       <color theme="0"/>
-      <name val="Microsoft YaHei"/>
-      <charset val="134"/>
+      <name val="Century Schoolbook"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="20"/>
       <color indexed="8"/>
-      <name val="Microsoft YaHei"/>
-      <charset val="134"/>
+      <name val="Century Schoolbook"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="20"/>
       <color rgb="FF000000"/>
-      <name val="Microsoft YaHei"/>
-      <charset val="134"/>
+      <name val="Century Schoolbook"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Century Schoolbook"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <color indexed="8"/>
-      <name val="Microsoft YaHei"/>
-      <charset val="134"/>
+      <name val="Century Schoolbook"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
-      <name val="Microsoft YaHei"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <name val="Century Schoolbook"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="18"/>
       <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
+      <name val="Century Schoolbook"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -228,53 +900,59 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="16" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="18" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="20" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="16" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="21" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -559,7 +1237,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -567,99 +1245,99 @@
     <col min="1" max="1" width="16.375" customWidth="1"/>
     <col min="2" max="2" width="27.625" customWidth="1"/>
     <col min="3" max="3" width="9.375" customWidth="1"/>
-    <col min="4" max="4" width="76.5" customWidth="1"/>
+    <col min="4" max="4" width="67.375" customWidth="1"/>
     <col min="5" max="5" width="90.625" customWidth="1"/>
     <col min="7" max="7" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="27">
       <c r="A1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="1"/>
       <c r="D1" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
     </row>
     <row r="2" spans="1:7" ht="22.5">
-      <c r="A2" s="4"/>
-      <c r="B2" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="5" t="s">
+      <c r="A2" s="5"/>
+      <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="C2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="D2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="E2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="F2" s="7" t="s">
         <v>5</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="233.1" customHeight="1">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="7">
+      <c r="C3" s="10">
         <v>0.75</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="14"/>
-      <c r="G3" s="15"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="13"/>
     </row>
     <row r="4" spans="1:7" ht="233.1" customHeight="1">
-      <c r="A4" s="13"/>
-      <c r="B4" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="7">
+      <c r="A4" s="8"/>
+      <c r="B4" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="10">
         <v>0.15</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="6" t="s">
+      <c r="D4" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="14"/>
-      <c r="G4" s="15"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="13"/>
     </row>
     <row r="5" spans="1:7" ht="182.25" customHeight="1">
-      <c r="A5" s="13"/>
-      <c r="B5" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="7">
+      <c r="A5" s="8"/>
+      <c r="B5" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="10">
         <v>0.1</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="11"/>
-      <c r="G5" s="12"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="17"/>
     </row>
     <row r="6" spans="1:7" ht="22.5" customHeight="1"/>
   </sheetData>
@@ -668,17 +1346,13 @@
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="G3:G4"/>
   </mergeCells>
-  <phoneticPr fontId="11" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="53" orientation="landscape"/>
+  <pageSetup paperSize="9" scale="53" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <bookSettings>
     <isFilterShared>1</isFilterShared>
@@ -686,13 +1360,27 @@
 </settings>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <listFile/>
-</mergeFile>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="1"/>
+  <pixelatorList sheetStid="3"/>
+  <pixelatorList sheetStid="4"/>
+</pixelators>
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <interlineItem sheetStid="1" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="4" interlineOnOff="0" interlineColor="0"/>
+</sheetInterline>
+</file>
+
+<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
 <allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <rangeList sheetStid="1" master=""/>
   <rangeList sheetStid="3" master=""/>
@@ -700,23 +1388,22 @@
 </allowEditUser>
 </file>
 
-<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <interlineItem sheetStid="1" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="4" interlineOnOff="0" interlineColor="0"/>
-</sheetInterline>
-</file>
-
 <file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="1"/>
-  <pixelatorList sheetStid="3"/>
-  <pixelatorList sheetStid="4"/>
-</pixelators>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
@@ -725,8 +1412,8 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
@@ -734,38 +1421,29 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>